--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Btla-Cd79a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Btla-Cd79a.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.1247706666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.374312</v>
+      </c>
+      <c r="I2">
+        <v>0.08987976235813114</v>
+      </c>
+      <c r="J2">
+        <v>0.08987976235813115</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>1.594046</v>
-      </c>
-      <c r="H2">
-        <v>4.782138000000001</v>
-      </c>
-      <c r="I2">
-        <v>0.4344737227754238</v>
-      </c>
-      <c r="J2">
-        <v>0.4344737227754238</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.1960263333333333</v>
+        <v>0.3157096666666667</v>
       </c>
       <c r="N2">
-        <v>0.588079</v>
+        <v>0.9471290000000001</v>
       </c>
       <c r="O2">
-        <v>0.0687445058541877</v>
+        <v>0.1051365823475855</v>
       </c>
       <c r="P2">
-        <v>0.0687445058541877</v>
+        <v>0.1051365823475855</v>
       </c>
       <c r="Q2">
-        <v>0.3124749925446667</v>
+        <v>0.03939130558311112</v>
       </c>
       <c r="R2">
-        <v>2.812274932902</v>
+        <v>0.354521750248</v>
       </c>
       <c r="S2">
-        <v>0.02986768137882585</v>
+        <v>0.009449651036547069</v>
       </c>
       <c r="T2">
-        <v>0.02986768137882585</v>
+        <v>0.009449651036547071</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.594046</v>
+        <v>0.1247706666666667</v>
       </c>
       <c r="H3">
-        <v>4.782138000000001</v>
+        <v>0.374312</v>
       </c>
       <c r="I3">
-        <v>0.4344737227754238</v>
+        <v>0.08987976235813114</v>
       </c>
       <c r="J3">
-        <v>0.4344737227754238</v>
+        <v>0.08987976235813115</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.601468</v>
       </c>
       <c r="O3">
-        <v>0.4209997942617738</v>
+        <v>0.3997829619346403</v>
       </c>
       <c r="P3">
-        <v>0.4209997942617738</v>
+        <v>0.3997829619346403</v>
       </c>
       <c r="Q3">
-        <v>1.913635219842667</v>
+        <v>0.1497858544462222</v>
       </c>
       <c r="R3">
-        <v>17.222716978584</v>
+        <v>1.348072690016</v>
       </c>
       <c r="S3">
-        <v>0.1829133479006004</v>
+        <v>0.03593239761351526</v>
       </c>
       <c r="T3">
-        <v>0.1829133479006004</v>
+        <v>0.03593239761351526</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.594046</v>
+        <v>0.1247706666666667</v>
       </c>
       <c r="H4">
-        <v>4.782138000000001</v>
+        <v>0.374312</v>
       </c>
       <c r="I4">
-        <v>0.4344737227754238</v>
+        <v>0.08987976235813114</v>
       </c>
       <c r="J4">
-        <v>0.4344737227754238</v>
+        <v>0.08987976235813115</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.121004666666667</v>
+        <v>1.393415666666667</v>
       </c>
       <c r="N4">
-        <v>3.363014000000001</v>
+        <v>4.180247</v>
       </c>
       <c r="O4">
-        <v>0.3931253039314705</v>
+        <v>0.4640306473022652</v>
       </c>
       <c r="P4">
-        <v>0.3931253039314705</v>
+        <v>0.4640306473022653</v>
       </c>
       <c r="Q4">
-        <v>1.786933004881334</v>
+        <v>0.1738574016737778</v>
       </c>
       <c r="R4">
-        <v>16.082397043932</v>
+        <v>1.564716615064</v>
       </c>
       <c r="S4">
-        <v>0.170802614316326</v>
+        <v>0.04170696430641736</v>
       </c>
       <c r="T4">
-        <v>0.170802614316326</v>
+        <v>0.04170696430641738</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.594046</v>
+        <v>0.1247706666666667</v>
       </c>
       <c r="H5">
-        <v>4.782138000000001</v>
+        <v>0.374312</v>
       </c>
       <c r="I5">
-        <v>0.4344737227754238</v>
+        <v>0.08987976235813114</v>
       </c>
       <c r="J5">
-        <v>0.4344737227754238</v>
+        <v>0.08987976235813115</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.3339996666666667</v>
+        <v>0.093238</v>
       </c>
       <c r="N5">
-        <v>1.001999</v>
+        <v>0.279714</v>
       </c>
       <c r="O5">
-        <v>0.117130395952568</v>
+        <v>0.03104980841550889</v>
       </c>
       <c r="P5">
-        <v>0.117130395952568</v>
+        <v>0.0310498084155089</v>
       </c>
       <c r="Q5">
-        <v>0.5324108326513335</v>
+        <v>0.01163336741866667</v>
       </c>
       <c r="R5">
-        <v>4.791697493862001</v>
+        <v>0.104700306768</v>
       </c>
       <c r="S5">
-        <v>0.05089007917967165</v>
+        <v>0.002790749401651439</v>
       </c>
       <c r="T5">
-        <v>0.05089007917967166</v>
+        <v>0.00279074940165144</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>0.6721</v>
       </c>
       <c r="I6">
-        <v>0.06106260193188952</v>
+        <v>0.1613845890083672</v>
       </c>
       <c r="J6">
-        <v>0.06106260193188953</v>
+        <v>0.1613845890083672</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1960263333333333</v>
+        <v>0.3157096666666667</v>
       </c>
       <c r="N6">
-        <v>0.588079</v>
+        <v>0.9471290000000001</v>
       </c>
       <c r="O6">
-        <v>0.0687445058541877</v>
+        <v>0.1051365823475855</v>
       </c>
       <c r="P6">
-        <v>0.0687445058541877</v>
+        <v>0.1051365823475855</v>
       </c>
       <c r="Q6">
-        <v>0.04391643287777778</v>
+        <v>0.07072948898888891</v>
       </c>
       <c r="R6">
-        <v>0.3952478959</v>
+        <v>0.6365654009000001</v>
       </c>
       <c r="S6">
-        <v>0.004197718395978713</v>
+        <v>0.01696742413190944</v>
       </c>
       <c r="T6">
-        <v>0.004197718395978713</v>
+        <v>0.01696742413190944</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.6721</v>
       </c>
       <c r="I7">
-        <v>0.06106260193188952</v>
+        <v>0.1613845890083672</v>
       </c>
       <c r="J7">
-        <v>0.06106260193188953</v>
+        <v>0.1613845890083672</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.601468</v>
       </c>
       <c r="O7">
-        <v>0.4209997942617738</v>
+        <v>0.3997829619346403</v>
       </c>
       <c r="P7">
-        <v>0.4209997942617738</v>
+        <v>0.3997829619346403</v>
       </c>
       <c r="Q7">
         <v>0.2689496269777777</v>
@@ -883,10 +883,10 @@
         <v>2.4205466428</v>
       </c>
       <c r="S7">
-        <v>0.02570734285041408</v>
+        <v>0.06451880900436964</v>
       </c>
       <c r="T7">
-        <v>0.02570734285041408</v>
+        <v>0.06451880900436964</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.6721</v>
       </c>
       <c r="I8">
-        <v>0.06106260193188952</v>
+        <v>0.1613845890083672</v>
       </c>
       <c r="J8">
-        <v>0.06106260193188953</v>
+        <v>0.1613845890083672</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.121004666666667</v>
+        <v>1.393415666666667</v>
       </c>
       <c r="N8">
-        <v>3.363014000000001</v>
+        <v>4.180247</v>
       </c>
       <c r="O8">
-        <v>0.3931253039314705</v>
+        <v>0.4640306473022652</v>
       </c>
       <c r="P8">
-        <v>0.3931253039314705</v>
+        <v>0.4640306473022653</v>
       </c>
       <c r="Q8">
-        <v>0.2511424121555556</v>
+        <v>0.3121715565222223</v>
       </c>
       <c r="R8">
-        <v>2.260281709400001</v>
+        <v>2.809544008700001</v>
       </c>
       <c r="S8">
-        <v>0.02400525394332047</v>
+        <v>0.07488739530216268</v>
       </c>
       <c r="T8">
-        <v>0.02400525394332047</v>
+        <v>0.07488739530216269</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>0.6721</v>
       </c>
       <c r="I9">
-        <v>0.06106260193188952</v>
+        <v>0.1613845890083672</v>
       </c>
       <c r="J9">
-        <v>0.06106260193188953</v>
+        <v>0.1613845890083672</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.3339996666666667</v>
+        <v>0.093238</v>
       </c>
       <c r="N9">
-        <v>1.001999</v>
+        <v>0.279714</v>
       </c>
       <c r="O9">
-        <v>0.117130395952568</v>
+        <v>0.03104980841550889</v>
       </c>
       <c r="P9">
-        <v>0.117130395952568</v>
+        <v>0.0310498084155089</v>
       </c>
       <c r="Q9">
-        <v>0.07482705865555556</v>
+        <v>0.02088841993333333</v>
       </c>
       <c r="R9">
-        <v>0.6734435279000001</v>
+        <v>0.1879957794</v>
       </c>
       <c r="S9">
-        <v>0.007152286742176262</v>
+        <v>0.005010960569925445</v>
       </c>
       <c r="T9">
-        <v>0.007152286742176264</v>
+        <v>0.005010960569925445</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.850833</v>
+        <v>1.039391333333333</v>
       </c>
       <c r="H10">
-        <v>5.552499000000001</v>
+        <v>3.118174</v>
       </c>
       <c r="I10">
-        <v>0.5044636752926867</v>
+        <v>0.7487356486335016</v>
       </c>
       <c r="J10">
-        <v>0.5044636752926867</v>
+        <v>0.7487356486335016</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1960263333333333</v>
+        <v>0.3157096666666667</v>
       </c>
       <c r="N10">
-        <v>0.588079</v>
+        <v>0.9471290000000001</v>
       </c>
       <c r="O10">
-        <v>0.0687445058541877</v>
+        <v>0.1051365823475855</v>
       </c>
       <c r="P10">
-        <v>0.0687445058541877</v>
+        <v>0.1051365823475855</v>
       </c>
       <c r="Q10">
-        <v>0.3628120066023334</v>
+        <v>0.328145891382889</v>
       </c>
       <c r="R10">
-        <v>3.265308059421001</v>
+        <v>2.953313022446</v>
       </c>
       <c r="S10">
-        <v>0.03467910607938314</v>
+        <v>0.07871950717912898</v>
       </c>
       <c r="T10">
-        <v>0.03467910607938314</v>
+        <v>0.07871950717912898</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.850833</v>
+        <v>1.039391333333333</v>
       </c>
       <c r="H11">
-        <v>5.552499000000001</v>
+        <v>3.118174</v>
       </c>
       <c r="I11">
-        <v>0.5044636752926867</v>
+        <v>0.7487356486335016</v>
       </c>
       <c r="J11">
-        <v>0.5044636752926867</v>
+        <v>0.7487356486335016</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.601468</v>
       </c>
       <c r="O11">
-        <v>0.4209997942617738</v>
+        <v>0.3997829619346403</v>
       </c>
       <c r="P11">
-        <v>0.4209997942617738</v>
+        <v>0.3997829619346403</v>
       </c>
       <c r="Q11">
-        <v>2.221905274281334</v>
+        <v>1.247778208825778</v>
       </c>
       <c r="R11">
-        <v>19.997147468532</v>
+        <v>11.230003879432</v>
       </c>
       <c r="S11">
-        <v>0.2123791035107593</v>
+        <v>0.2993317553167554</v>
       </c>
       <c r="T11">
-        <v>0.2123791035107593</v>
+        <v>0.2993317553167554</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.850833</v>
+        <v>1.039391333333333</v>
       </c>
       <c r="H12">
-        <v>5.552499000000001</v>
+        <v>3.118174</v>
       </c>
       <c r="I12">
-        <v>0.5044636752926867</v>
+        <v>0.7487356486335016</v>
       </c>
       <c r="J12">
-        <v>0.5044636752926867</v>
+        <v>0.7487356486335016</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.121004666666667</v>
+        <v>1.393415666666667</v>
       </c>
       <c r="N12">
-        <v>3.363014000000001</v>
+        <v>4.180247</v>
       </c>
       <c r="O12">
-        <v>0.3931253039314705</v>
+        <v>0.4640306473022652</v>
       </c>
       <c r="P12">
-        <v>0.3931253039314705</v>
+        <v>0.4640306473022653</v>
       </c>
       <c r="Q12">
-        <v>2.074792430220668</v>
+        <v>1.448304167664222</v>
       </c>
       <c r="R12">
-        <v>18.673131871986</v>
+        <v>13.034737508978</v>
       </c>
       <c r="S12">
-        <v>0.1983174356718241</v>
+        <v>0.3474362876936852</v>
       </c>
       <c r="T12">
-        <v>0.1983174356718241</v>
+        <v>0.3474362876936852</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.850833</v>
+        <v>1.039391333333333</v>
       </c>
       <c r="H13">
-        <v>5.552499000000001</v>
+        <v>3.118174</v>
       </c>
       <c r="I13">
-        <v>0.5044636752926867</v>
+        <v>0.7487356486335016</v>
       </c>
       <c r="J13">
-        <v>0.5044636752926867</v>
+        <v>0.7487356486335016</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.3339996666666667</v>
+        <v>0.093238</v>
       </c>
       <c r="N13">
-        <v>1.001999</v>
+        <v>0.279714</v>
       </c>
       <c r="O13">
-        <v>0.117130395952568</v>
+        <v>0.03104980841550889</v>
       </c>
       <c r="P13">
-        <v>0.117130395952568</v>
+        <v>0.0310498084155089</v>
       </c>
       <c r="Q13">
-        <v>0.6181776050556669</v>
+        <v>0.09691076913733333</v>
       </c>
       <c r="R13">
-        <v>5.563598445501001</v>
+        <v>0.872196922236</v>
       </c>
       <c r="S13">
-        <v>0.05908803003072007</v>
+        <v>0.02324809844393201</v>
       </c>
       <c r="T13">
-        <v>0.05908803003072008</v>
+        <v>0.02324809844393201</v>
       </c>
     </row>
   </sheetData>
